--- a/Module/Fragen_Quiz.xlsx
+++ b/Module/Fragen_Quiz.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marku\Documents\R-Projekte\HackathonSN2023\Module\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAA7F49F-E4A7-4CB8-B531-FB108CB643A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C1BC759-BC09-4ABC-AFB5-386983C8983D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{038BF83B-4E0E-466C-A2A8-7B82ACCE286C}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="55">
   <si>
     <t>Frage</t>
   </si>
@@ -193,6 +193,15 @@
   </si>
   <si>
     <t>Land- und Forstwirtschaft, Fischerei (A)</t>
+  </si>
+  <si>
+    <t>Wert_Code</t>
+  </si>
+  <si>
+    <t>BEVSTD__Bevoelkerungsstand__Anzahl</t>
+  </si>
+  <si>
+    <t>ID0002__Erwerbstaetige_im_Jahresdurchschnitt__1000</t>
   </si>
 </sst>
 </file>
@@ -554,9 +563,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6939AAD5-29F7-409B-8D31-2C6001871F5E}">
-  <dimension ref="A1:J3"/>
+  <dimension ref="A1:K3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -569,7 +580,7 @@
     <col min="9" max="9" width="25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>13</v>
       </c>
@@ -600,8 +611,11 @@
       <c r="J1" s="2" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K1" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>12411</v>
       </c>
@@ -630,8 +644,11 @@
       <c r="J2" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>13312</v>
       </c>
@@ -659,6 +676,9 @@
       </c>
       <c r="J3" t="s">
         <v>51</v>
+      </c>
+      <c r="K3" t="s">
+        <v>54</v>
       </c>
     </row>
   </sheetData>

--- a/Module/Fragen_Quiz.xlsx
+++ b/Module/Fragen_Quiz.xlsx
@@ -8,14 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marku\Documents\R-Projekte\HackathonSN2023\Module\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C1BC759-BC09-4ABC-AFB5-386983C8983D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4456B8F-3B49-4958-AD8D-C536C3D30E48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{038BF83B-4E0E-466C-A2A8-7B82ACCE286C}"/>
   </bookViews>
   <sheets>
-    <sheet name="Fragen" sheetId="1" r:id="rId1"/>
-    <sheet name="Tabelle2" sheetId="2" r:id="rId2"/>
+    <sheet name="Fragen" sheetId="3" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Fragen!$A$1:$H$18</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -37,126 +39,123 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="71">
   <si>
     <t>Frage</t>
   </si>
   <si>
-    <t>Bezeichnung</t>
-  </si>
-  <si>
     <t>Info</t>
   </si>
   <si>
-    <t>Bautzen, Landkreis</t>
-  </si>
-  <si>
-    <t>Erzgebirgskreis</t>
-  </si>
-  <si>
-    <t>Vogtlandkreis</t>
-  </si>
-  <si>
-    <t>Nordsachsen, Landkreis</t>
-  </si>
-  <si>
-    <t>Mittelsachsen, Landkreis</t>
-  </si>
-  <si>
-    <t>Dresden, kreisfreie Stadt</t>
-  </si>
-  <si>
-    <t>Leipzig, kreisfreie Stadt</t>
-  </si>
-  <si>
-    <t>Leipzig, Landkreis</t>
-  </si>
-  <si>
-    <t>Görlitz, Landkreis</t>
-  </si>
-  <si>
-    <t>Sächsische Schweiz-Osterzgebirge, Landkreis</t>
+    <t>Der Bevölkerungsstand bzw. die Einwohnerzahl einer Stadt oder eines Landkreises wird jedes Jahr fortgeschrieben. Nur aller 10 Jahre - mit einer neuen Zensuserhebung - wird der genaue Bevölkerungsstand erhoben. Es gibt auch eine Berechnung, welche die Bevölkerung bis 2040 "vorhersagt", die Bevölkerungsvorausberechnung.</t>
+  </si>
+  <si>
+    <t>Das Durchschnittsalter der Bevölkerung ist in ländlichen Gebieten meistens sehr hoch. Das niedrigsten Durchschnittaalter haben hingegen die Bevohner der kreisfreien Stadt Leipzig.</t>
+  </si>
+  <si>
+    <t>In der amtlichen Statistik werden die Erwerbstätigen nach Wirtschaftszweigen erhoben. Einer dieser Wirtschaftszweige ist die "Land- und Forstwirtschaft, Fischerei".</t>
+  </si>
+  <si>
+    <t>Die Gebietsfläche ist die flächenmäßige Ausdehnung einer Stadt oder eines Landkreises. Der Gebietsstand wird immer zum 31.12. festgestellt.</t>
+  </si>
+  <si>
+    <t>In Sachsen besuchen Schülerinnen und Schüler vier Schuljahre eine Grundschule.</t>
+  </si>
+  <si>
+    <t>Die Statistik der allgemeinbildenden Schulen wird jedes Schuljahr erhoben. Für den Freistaat Sachsen gibt es eine Schülerprognose, welche die Schülerzahlen bis 2040 vorausberechnet.</t>
+  </si>
+  <si>
+    <t>Im Freistaat Sachsen gibt es vier Hochschularten: Universitäten, Kunsthochschulen, Fachhochschulen und Verwaltungsfachhochschulen.</t>
+  </si>
+  <si>
+    <t>Eine Baugenehmigung ist eine Bestätigung der zuständigen Baubehörde, dass zum Beispiel ein Wohngebäude gebaut werden darf.</t>
+  </si>
+  <si>
+    <t>Die Bodenfläche einer Stadt oder eines Landkreises kann sehr unterschiedlich genutzt werden. Zum einen wird ein Teil als Siedlungs- und Verkehrsfläche genutzt. Zum anderen besteht die Bodenfläche aus nicht bebauten Gebieten wie Wäldern und Gewässern. In der Landwirtschaft versteht man unter Bodennutzung die Bewirtschaftung des Bodens, die darauf abzielt einen Pflanzenertrag zu erwirtschaften.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Der Hektarertrag ist die Menge an Kartoffeln, die auf einem Hektar Fläche geernten werden kann. </t>
+  </si>
+  <si>
+    <t>Die Anzahl der Beherberungsbetriebe ist nicht immer entscheidend für die Anzahl der Übernachtungen. Sie stellt allerdings ein entscheidender Indikator (Anzeichen für einen Zustand).</t>
+  </si>
+  <si>
+    <t>Bei der Gästeübernachtung wird jeder Tag mitgezählt. Wenn du fünf Tage im Hotel übernachtest sind das fünf Gästeübernachtungen.</t>
+  </si>
+  <si>
+    <t>Der Kraftfahrzeugbestand ist die Summe aller im Zentralen Fahrzeugregister gespeicherten Kraftfahrzeuge und -anhänger. Darunter fallen auch Personenkraftwagen (PKWs).</t>
+  </si>
+  <si>
+    <t>Ein Handwerksunternehmen sind Unternehmen, die ein Handwerk wie zum Beispiel Elektrotechnik oder Holzhandwerk ausüben.</t>
+  </si>
+  <si>
+    <t>Die Statistik der Kaufwerte für Bauland erfasst den durchschnittlichen Kaufwert je Quadratmeter. Sie ermittelt also, wo das Bauland am teuersten ist.</t>
+  </si>
+  <si>
+    <t>Die VGR (Volkswirtschaftliche Gesamtrechnung) der Länder berechnet dasverfügbare Einkommen der privaten Haushalte je Einwohner.</t>
   </si>
   <si>
     <t>Statistik_Code</t>
   </si>
   <si>
-    <t>Antwort_Kreis</t>
-  </si>
-  <si>
-    <t>Antwort_Wert</t>
-  </si>
-  <si>
     <t>Grafik</t>
   </si>
   <si>
-    <t>Karte</t>
-  </si>
-  <si>
     <t>Balkendiagramm</t>
   </si>
   <si>
-    <t>Liniendiagramm</t>
-  </si>
-  <si>
     <t>Kreisdiagramm</t>
   </si>
   <si>
-    <t>Antwort_AGS</t>
-  </si>
-  <si>
-    <t>AGS</t>
-  </si>
-  <si>
-    <t>Landkreis</t>
-  </si>
-  <si>
-    <t>Chemnitz, kreisfreie Stadt</t>
-  </si>
-  <si>
-    <t>Zwickau, Landkreis</t>
-  </si>
-  <si>
-    <t>Meißen, Landkreis</t>
-  </si>
-  <si>
-    <t>14511</t>
-  </si>
-  <si>
-    <t>14521</t>
-  </si>
-  <si>
-    <t>14522</t>
-  </si>
-  <si>
-    <t>14523</t>
-  </si>
-  <si>
-    <t>14524</t>
-  </si>
-  <si>
-    <t>14612</t>
-  </si>
-  <si>
-    <t>14625</t>
-  </si>
-  <si>
-    <t>14626</t>
-  </si>
-  <si>
-    <t>14627</t>
-  </si>
-  <si>
-    <t>14628</t>
-  </si>
-  <si>
-    <t>14713</t>
-  </si>
-  <si>
-    <t>14729</t>
-  </si>
-  <si>
-    <t>14730</t>
+    <t>Welche Stadt oder welcher Landkreis hat die größte Gebietsfläche?</t>
+  </si>
+  <si>
+    <t>Welche Stadt oder welcher Landkreis hat die wenigsten Einwohner?</t>
+  </si>
+  <si>
+    <t>Welche Stadt oder welcher Landkreis hat die durchschnittlich ältesten Einwohner?</t>
+  </si>
+  <si>
+    <t>In welcher Stadt oder welchem Landkreis arbeiten die meisten Personen in der Land- und Forstwirtschaft sowie Fischerei?</t>
+  </si>
+  <si>
+    <t>Welcher Stadt oder welcher Landkreis hat die meisten Grundschulen?</t>
+  </si>
+  <si>
+    <t>Welche Stadt oder welcher Landkreis hat die meisten Schülerinnen und Schüler an allgemeinbildenden Schulen?</t>
+  </si>
+  <si>
+    <t>Welche Stadt oder welcher Landkreis hat die meisten Studierenden?</t>
+  </si>
+  <si>
+    <t>In welcher Stadt oder welchem Landkreis wurden die meisten Baugenehmigungen für Wohngebäude erteilt?</t>
+  </si>
+  <si>
+    <t>In welcher Stadt oder welchem Landkreis wird am meisten der Bodenfläche für Landwirtschaft genutzt?</t>
+  </si>
+  <si>
+    <t>In welcher Stadt oder welchem Landkreis hat die meiste Waldfläche?</t>
+  </si>
+  <si>
+    <t>In welcher Stadt oder welchem Landkreis werden die meisten Kartoffeln pro Hektar geerntet?</t>
+  </si>
+  <si>
+    <t>In welcher Stadt oder welchem Landkreis gibt es die meisten Beherberungsbetriebe (Hotels, Pesionen etc.)?</t>
+  </si>
+  <si>
+    <t>In welcher Stadt oder welchem Landkreis verzeichnete die meisten Gästeübernachtungen aus dem Ausland?</t>
+  </si>
+  <si>
+    <t>In welcher Stadt oder welchem Landkreis gibt es die wenigsten PKWs?</t>
+  </si>
+  <si>
+    <t>In welcher Stadt oder welchem Landkreis gibt es die meisten Handwerksunternehmen?</t>
+  </si>
+  <si>
+    <t>In welcher Stadt oder welchem Landkreis ist das Bauland am teuersten?</t>
+  </si>
+  <si>
+    <t>In welcher Stadt oder welchem Landkreis ist das Einkommen pro Person am höchsten?</t>
   </si>
   <si>
     <t>Thema</t>
@@ -168,40 +167,91 @@
     <t xml:space="preserve">Wirtschaft, Einkommen und Unternehmen </t>
   </si>
   <si>
-    <t>Bevölkerung insgesamt</t>
-  </si>
-  <si>
-    <t>Welche Stadt oder welcher Landkreis hat die wenigsten Einwohner?</t>
-  </si>
-  <si>
-    <t>Der Bevölkerungsstand bzw. die Einwohnerzahl einer Stadt oder eines Landkreises wird jedes Jahr fortgeschrieben. Nur aller 10 Jahre - mit einer neuen Zensuserhebung - wird der genaue Bevölkerungsstand erhoben. Es gibt auch eine Berechnung, welche die Bevölkerung bis 2040 "vorhersagt", die Bevölkerungsvorausberechnung.</t>
-  </si>
-  <si>
-    <t>Erwerbstätige nach Wirtschaftszweigen - in Tausend - Land- und Forstwirtschaft, Fischerei</t>
-  </si>
-  <si>
-    <t>In welcher Stadt oder welchem Landkreis arbeiten die meisten Personen in der Land- und Forstwirtschaft sowie Fischerei?</t>
-  </si>
-  <si>
-    <t>In der amtlichen Statistik werden die Erwerbstätigen nach Wirtschaftszweigen erhoben. Einer dieser Wirtschaftszweige ist die "Land- und Forstwirtschaft, Fischerei".</t>
+    <t>Antwort_min_max</t>
   </si>
   <si>
     <t>Merkmal</t>
   </si>
   <si>
+    <t>Wert_Code</t>
+  </si>
+  <si>
     <t>Insgesamt</t>
   </si>
   <si>
+    <t>FLC006__Gebietsflaeche__qkm</t>
+  </si>
+  <si>
+    <t>max</t>
+  </si>
+  <si>
+    <t>BEVSTD__Bevoelkerungsstand__Anzahl</t>
+  </si>
+  <si>
+    <t>min</t>
+  </si>
+  <si>
+    <t>BEV519__Durchschnittsalter_der_Bevoelkerung__Jahre…</t>
+  </si>
+  <si>
+    <t>ID0002__Erwerbstaetige_im_Jahresdurchschnitt__1000</t>
+  </si>
+  <si>
     <t>Land- und Forstwirtschaft, Fischerei (A)</t>
   </si>
   <si>
-    <t>Wert_Code</t>
-  </si>
-  <si>
-    <t>BEVSTD__Bevoelkerungsstand__Anzahl</t>
-  </si>
-  <si>
-    <t>ID0002__Erwerbstaetige_im_Jahresdurchschnitt__1000</t>
+    <t>BIL013__Allgemeinbildende_Schulen__Anzahl</t>
+  </si>
+  <si>
+    <t>Grundschulen</t>
+  </si>
+  <si>
+    <t>Ausland</t>
+  </si>
+  <si>
+    <t>BIL003__Schueler/-innen_an_allgemeinbildenden_Schulen__Anzahl</t>
+  </si>
+  <si>
+    <t>HS-W02__Studierende_(im_Kreisgebiet)__Anzahl</t>
+  </si>
+  <si>
+    <t>BAU015__Wohngebaeude__Anzahl</t>
+  </si>
+  <si>
+    <t>Wohngebäude (inkl. Wohnheime)</t>
+  </si>
+  <si>
+    <t>FLC005__Bodenflaeche__ha</t>
+  </si>
+  <si>
+    <t>Landwirtschaft</t>
+  </si>
+  <si>
+    <t>Wald</t>
+  </si>
+  <si>
+    <t>ERT001__Hektarertraege__dt/ha</t>
+  </si>
+  <si>
+    <t>Kartoffeln</t>
+  </si>
+  <si>
+    <t>GAST04__Geoeffnete_Beherbergungsbetriebe__Anzahl</t>
+  </si>
+  <si>
+    <t>GAST02__Gaesteuebernachtungen__Anzahl</t>
+  </si>
+  <si>
+    <t>VER012__Kraftfahrzeugbestand__Anzahl...15</t>
+  </si>
+  <si>
+    <t>UNT019__Handwerksunternehmen__Anzahl</t>
+  </si>
+  <si>
+    <t>BAU004__Durchschnittlicher_Kaufwert_je_qm__EUR</t>
+  </si>
+  <si>
+    <t>EKM014__verfueg._Einkommen_der_priv._Haushalte_je_Einwohner__EUR</t>
   </si>
 </sst>
 </file>
@@ -217,18 +267,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF92D050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -243,12 +287,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -562,281 +602,494 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6939AAD5-29F7-409B-8D31-2C6001871F5E}">
-  <dimension ref="A1:K3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C75852A4-ECA2-454E-AC82-6219A7C78EC0}">
+  <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.7109375" customWidth="1"/>
-    <col min="2" max="2" width="42.140625" customWidth="1"/>
-    <col min="3" max="3" width="16.5703125" customWidth="1"/>
-    <col min="4" max="5" width="13.140625" customWidth="1"/>
-    <col min="6" max="6" width="24.5703125" customWidth="1"/>
-    <col min="7" max="8" width="18.140625" customWidth="1"/>
-    <col min="9" max="9" width="25" customWidth="1"/>
+    <col min="1" max="1" width="13.5703125" customWidth="1"/>
+    <col min="2" max="2" width="39.42578125" customWidth="1"/>
+    <col min="3" max="3" width="17.140625" customWidth="1"/>
+    <col min="4" max="4" width="17" customWidth="1"/>
+    <col min="5" max="5" width="22" customWidth="1"/>
+    <col min="6" max="6" width="17.85546875" customWidth="1"/>
+    <col min="7" max="7" width="86.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>11111</v>
+      </c>
+      <c r="B2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E2" t="s">
+        <v>46</v>
+      </c>
+      <c r="F2" t="s">
+        <v>47</v>
+      </c>
+      <c r="G2" t="s">
+        <v>22</v>
+      </c>
+      <c r="H2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>12411</v>
+      </c>
+      <c r="B3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E3" t="s">
+        <v>48</v>
+      </c>
+      <c r="F3" t="s">
+        <v>49</v>
+      </c>
+      <c r="G3" t="s">
+        <v>23</v>
+      </c>
+      <c r="H3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>12411</v>
+      </c>
+      <c r="B4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" t="s">
+        <v>45</v>
+      </c>
+      <c r="E4" t="s">
+        <v>50</v>
+      </c>
+      <c r="F4" t="s">
+        <v>47</v>
+      </c>
+      <c r="G4" t="s">
+        <v>24</v>
+      </c>
+      <c r="H4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>13312</v>
+      </c>
+      <c r="B5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" t="s">
+        <v>52</v>
+      </c>
+      <c r="E5" t="s">
+        <v>51</v>
+      </c>
+      <c r="F5" t="s">
+        <v>47</v>
+      </c>
+      <c r="G5" t="s">
+        <v>25</v>
+      </c>
+      <c r="H5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>21111</v>
+      </c>
+      <c r="B6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" t="s">
+        <v>54</v>
+      </c>
+      <c r="E6" t="s">
+        <v>53</v>
+      </c>
+      <c r="F6" t="s">
+        <v>47</v>
+      </c>
+      <c r="G6" t="s">
+        <v>26</v>
+      </c>
+      <c r="H6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>21111</v>
+      </c>
+      <c r="B7" t="s">
+        <v>40</v>
+      </c>
+      <c r="C7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" t="s">
+        <v>45</v>
+      </c>
+      <c r="E7" t="s">
+        <v>56</v>
+      </c>
+      <c r="F7" t="s">
+        <v>47</v>
+      </c>
+      <c r="G7" t="s">
+        <v>27</v>
+      </c>
+      <c r="H7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>21311</v>
+      </c>
+      <c r="B8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8" t="s">
+        <v>45</v>
+      </c>
+      <c r="E8" t="s">
+        <v>57</v>
+      </c>
+      <c r="F8" t="s">
+        <v>47</v>
+      </c>
+      <c r="G8" t="s">
+        <v>28</v>
+      </c>
+      <c r="H8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>31111</v>
+      </c>
+      <c r="B9" t="s">
+        <v>41</v>
+      </c>
+      <c r="C9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D9" t="s">
+        <v>59</v>
+      </c>
+      <c r="E9" t="s">
+        <v>58</v>
+      </c>
+      <c r="F9" t="s">
+        <v>47</v>
+      </c>
+      <c r="G9" t="s">
+        <v>29</v>
+      </c>
+      <c r="H9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>33111</v>
+      </c>
+      <c r="B10" t="s">
+        <v>41</v>
+      </c>
+      <c r="C10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10" t="s">
+        <v>61</v>
+      </c>
+      <c r="E10" t="s">
+        <v>60</v>
+      </c>
+      <c r="F10" t="s">
+        <v>47</v>
+      </c>
+      <c r="G10" t="s">
+        <v>30</v>
+      </c>
+      <c r="H10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>33111</v>
+      </c>
+      <c r="B11" t="s">
+        <v>41</v>
+      </c>
+      <c r="C11" t="s">
+        <v>20</v>
+      </c>
+      <c r="D11" t="s">
+        <v>62</v>
+      </c>
+      <c r="E11" t="s">
+        <v>60</v>
+      </c>
+      <c r="F11" t="s">
+        <v>47</v>
+      </c>
+      <c r="G11" t="s">
+        <v>31</v>
+      </c>
+      <c r="H11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>41241</v>
+      </c>
+      <c r="B12" t="s">
+        <v>41</v>
+      </c>
+      <c r="C12" t="s">
+        <v>20</v>
+      </c>
+      <c r="D12" t="s">
+        <v>64</v>
+      </c>
+      <c r="E12" t="s">
+        <v>63</v>
+      </c>
+      <c r="F12" t="s">
+        <v>47</v>
+      </c>
+      <c r="G12" t="s">
+        <v>32</v>
+      </c>
+      <c r="H12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>45412</v>
+      </c>
+      <c r="B13" t="s">
+        <v>41</v>
+      </c>
+      <c r="C13" t="s">
+        <v>21</v>
+      </c>
+      <c r="D13" t="s">
+        <v>45</v>
+      </c>
+      <c r="E13" t="s">
+        <v>65</v>
+      </c>
+      <c r="F13" t="s">
+        <v>47</v>
+      </c>
+      <c r="G13" t="s">
+        <v>33</v>
+      </c>
+      <c r="H13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>45412</v>
+      </c>
+      <c r="B14" t="s">
+        <v>41</v>
+      </c>
+      <c r="C14" t="s">
+        <v>20</v>
+      </c>
+      <c r="D14" t="s">
+        <v>55</v>
+      </c>
+      <c r="E14" t="s">
+        <v>66</v>
+      </c>
+      <c r="F14" t="s">
+        <v>47</v>
+      </c>
+      <c r="G14" t="s">
+        <v>34</v>
+      </c>
+      <c r="H14" t="s">
         <v>13</v>
       </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" s="2" t="s">
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>46251</v>
+      </c>
+      <c r="B15" t="s">
+        <v>41</v>
+      </c>
+      <c r="C15" t="s">
+        <v>20</v>
+      </c>
+      <c r="D15" t="s">
+        <v>45</v>
+      </c>
+      <c r="E15" t="s">
+        <v>67</v>
+      </c>
+      <c r="F15" t="s">
+        <v>49</v>
+      </c>
+      <c r="G15" t="s">
+        <v>35</v>
+      </c>
+      <c r="H15" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>53111</v>
+      </c>
+      <c r="B16" t="s">
+        <v>41</v>
+      </c>
+      <c r="C16" t="s">
+        <v>20</v>
+      </c>
+      <c r="D16" t="s">
+        <v>45</v>
+      </c>
+      <c r="E16" t="s">
+        <v>68</v>
+      </c>
+      <c r="F16" t="s">
+        <v>47</v>
+      </c>
+      <c r="G16" t="s">
+        <v>36</v>
+      </c>
+      <c r="H16" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>61511</v>
+      </c>
+      <c r="B17" t="s">
+        <v>41</v>
+      </c>
+      <c r="C17" t="s">
         <v>21</v>
       </c>
-      <c r="F1" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H1" s="2" t="s">
+      <c r="D17" t="s">
+        <v>45</v>
+      </c>
+      <c r="E17" t="s">
+        <v>69</v>
+      </c>
+      <c r="F17" t="s">
+        <v>47</v>
+      </c>
+      <c r="G17" t="s">
+        <v>37</v>
+      </c>
+      <c r="H17" t="s">
         <v>16</v>
       </c>
-      <c r="I1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>12411</v>
-      </c>
-      <c r="B2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C2" t="s">
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>82411</v>
+      </c>
+      <c r="B18" t="s">
         <v>41</v>
       </c>
-      <c r="D2" t="s">
-        <v>44</v>
-      </c>
-      <c r="E2" t="s">
-        <v>39</v>
-      </c>
-      <c r="F2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G2">
-        <v>199824</v>
-      </c>
-      <c r="H2" s="1"/>
-      <c r="I2" t="s">
+      <c r="C18" t="s">
+        <v>21</v>
+      </c>
+      <c r="D18" t="s">
         <v>45</v>
       </c>
-      <c r="J2" t="s">
-        <v>50</v>
-      </c>
-      <c r="K2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>13312</v>
-      </c>
-      <c r="B3" t="s">
-        <v>46</v>
-      </c>
-      <c r="C3" t="s">
-        <v>42</v>
-      </c>
-      <c r="D3" t="s">
-        <v>47</v>
-      </c>
-      <c r="E3" t="s">
-        <v>29</v>
-      </c>
-      <c r="F3" t="s">
-        <v>7</v>
-      </c>
-      <c r="G3">
-        <v>3500</v>
-      </c>
-      <c r="H3" s="1"/>
-      <c r="I3" t="s">
-        <v>48</v>
-      </c>
-      <c r="J3" t="s">
-        <v>51</v>
-      </c>
-      <c r="K3" t="s">
-        <v>54</v>
+      <c r="E18" t="s">
+        <v>70</v>
+      </c>
+      <c r="F18" t="s">
+        <v>47</v>
+      </c>
+      <c r="G18" t="s">
+        <v>38</v>
+      </c>
+      <c r="H18" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60655BAE-FC39-4AF5-B4C2-04F2E27E0B5D}">
-  <dimension ref="A1:D15"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="18.5703125" customWidth="1"/>
-    <col min="3" max="3" width="41" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B4" t="s">
-        <v>28</v>
-      </c>
-      <c r="C4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D4" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>19</v>
-      </c>
-      <c r="B5" t="s">
-        <v>29</v>
-      </c>
-      <c r="C5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>20</v>
-      </c>
-      <c r="B6" t="s">
-        <v>30</v>
-      </c>
-      <c r="C6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
-        <v>31</v>
-      </c>
-      <c r="C7" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B8" t="s">
-        <v>32</v>
-      </c>
-      <c r="C8" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B9" t="s">
-        <v>33</v>
-      </c>
-      <c r="C9" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
-        <v>34</v>
-      </c>
-      <c r="C10" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B11" t="s">
-        <v>35</v>
-      </c>
-      <c r="C11" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B12" t="s">
-        <v>36</v>
-      </c>
-      <c r="C12" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B13" t="s">
-        <v>37</v>
-      </c>
-      <c r="C13" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B14" t="s">
-        <v>38</v>
-      </c>
-      <c r="C14" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B15" t="s">
-        <v>39</v>
-      </c>
-      <c r="C15" t="s">
-        <v>6</v>
-      </c>
-    </row>
-  </sheetData>
+  <autoFilter ref="A1:H18" xr:uid="{C75852A4-ECA2-454E-AC82-6219A7C78EC0}"/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Module/Fragen_Quiz.xlsx
+++ b/Module/Fragen_Quiz.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marku\Documents\R-Projekte\HackathonSN2023\Module\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4456B8F-3B49-4958-AD8D-C536C3D30E48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13129A09-144E-4E09-B8A0-31C3C7EFB5E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{038BF83B-4E0E-466C-A2A8-7B82ACCE286C}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Fragen" sheetId="3" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Fragen!$A$1:$H$18</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Fragen!$A$1:$H$17</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="70">
   <si>
     <t>Frage</t>
   </si>
@@ -131,9 +131,6 @@
     <t>In welcher Stadt oder welchem Landkreis wurden die meisten Baugenehmigungen für Wohngebäude erteilt?</t>
   </si>
   <si>
-    <t>In welcher Stadt oder welchem Landkreis wird am meisten der Bodenfläche für Landwirtschaft genutzt?</t>
-  </si>
-  <si>
     <t>In welcher Stadt oder welchem Landkreis hat die meiste Waldfläche?</t>
   </si>
   <si>
@@ -191,9 +188,6 @@
     <t>min</t>
   </si>
   <si>
-    <t>BEV519__Durchschnittsalter_der_Bevoelkerung__Jahre…</t>
-  </si>
-  <si>
     <t>ID0002__Erwerbstaetige_im_Jahresdurchschnitt__1000</t>
   </si>
   <si>
@@ -224,9 +218,6 @@
     <t>FLC005__Bodenflaeche__ha</t>
   </si>
   <si>
-    <t>Landwirtschaft</t>
-  </si>
-  <si>
     <t>Wald</t>
   </si>
   <si>
@@ -252,6 +243,12 @@
   </si>
   <si>
     <t>EKM014__verfueg._Einkommen_der_priv._Haushalte_je_Einwohner__EUR</t>
+  </si>
+  <si>
+    <t>insgesamt</t>
+  </si>
+  <si>
+    <t>BEV519__Durchschnittsalter_der_Bevoelkerung__Jahre...</t>
   </si>
 </sst>
 </file>
@@ -603,10 +600,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C75852A4-ECA2-454E-AC82-6219A7C78EC0}">
-  <dimension ref="A1:H18"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -625,19 +622,19 @@
         <v>18</v>
       </c>
       <c r="B1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C1" t="s">
         <v>19</v>
       </c>
       <c r="D1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E1" t="s">
         <v>43</v>
       </c>
-      <c r="E1" t="s">
-        <v>44</v>
-      </c>
       <c r="F1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G1" t="s">
         <v>0</v>
@@ -651,19 +648,19 @@
         <v>11111</v>
       </c>
       <c r="B2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C2" t="s">
         <v>21</v>
       </c>
       <c r="D2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E2" t="s">
         <v>45</v>
       </c>
-      <c r="E2" t="s">
-        <v>46</v>
-      </c>
       <c r="F2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G2" t="s">
         <v>22</v>
@@ -677,19 +674,19 @@
         <v>12411</v>
       </c>
       <c r="B3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C3" t="s">
         <v>20</v>
       </c>
       <c r="D3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E3" t="s">
+        <v>47</v>
+      </c>
+      <c r="F3" t="s">
         <v>48</v>
-      </c>
-      <c r="F3" t="s">
-        <v>49</v>
       </c>
       <c r="G3" t="s">
         <v>23</v>
@@ -703,19 +700,19 @@
         <v>12411</v>
       </c>
       <c r="B4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C4" t="s">
         <v>20</v>
       </c>
       <c r="D4" t="s">
-        <v>45</v>
+        <v>68</v>
       </c>
       <c r="E4" t="s">
-        <v>50</v>
+        <v>69</v>
       </c>
       <c r="F4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G4" t="s">
         <v>24</v>
@@ -729,19 +726,19 @@
         <v>13312</v>
       </c>
       <c r="B5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C5" t="s">
         <v>20</v>
       </c>
       <c r="D5" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G5" t="s">
         <v>25</v>
@@ -755,19 +752,19 @@
         <v>21111</v>
       </c>
       <c r="B6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C6" t="s">
         <v>20</v>
       </c>
       <c r="D6" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E6" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G6" t="s">
         <v>26</v>
@@ -781,19 +778,19 @@
         <v>21111</v>
       </c>
       <c r="B7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C7" t="s">
         <v>20</v>
       </c>
       <c r="D7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G7" t="s">
         <v>27</v>
@@ -807,19 +804,19 @@
         <v>21311</v>
       </c>
       <c r="B8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C8" t="s">
         <v>20</v>
       </c>
       <c r="D8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E8" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G8" t="s">
         <v>28</v>
@@ -833,19 +830,19 @@
         <v>31111</v>
       </c>
       <c r="B9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C9" t="s">
         <v>21</v>
       </c>
       <c r="D9" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E9" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G9" t="s">
         <v>29</v>
@@ -859,19 +856,19 @@
         <v>33111</v>
       </c>
       <c r="B10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C10" t="s">
         <v>20</v>
       </c>
       <c r="D10" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E10" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G10" t="s">
         <v>30</v>
@@ -882,54 +879,54 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>33111</v>
+        <v>41241</v>
       </c>
       <c r="B11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C11" t="s">
         <v>20</v>
       </c>
       <c r="D11" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E11" t="s">
         <v>60</v>
       </c>
       <c r="F11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G11" t="s">
         <v>31</v>
       </c>
       <c r="H11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>41241</v>
+        <v>45412</v>
       </c>
       <c r="B12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C12" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D12" t="s">
-        <v>64</v>
+        <v>44</v>
       </c>
       <c r="E12" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F12" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G12" t="s">
         <v>32</v>
       </c>
       <c r="H12" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
@@ -937,159 +934,133 @@
         <v>45412</v>
       </c>
       <c r="B13" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C13" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D13" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="E13" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G13" t="s">
         <v>33</v>
       </c>
       <c r="H13" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>45412</v>
+        <v>46251</v>
       </c>
       <c r="B14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C14" t="s">
         <v>20</v>
       </c>
       <c r="D14" t="s">
-        <v>55</v>
+        <v>68</v>
       </c>
       <c r="E14" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G14" t="s">
         <v>34</v>
       </c>
       <c r="H14" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>46251</v>
+        <v>53111</v>
       </c>
       <c r="B15" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C15" t="s">
         <v>20</v>
       </c>
       <c r="D15" t="s">
-        <v>45</v>
+        <v>68</v>
       </c>
       <c r="E15" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F15" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="G15" t="s">
         <v>35</v>
       </c>
       <c r="H15" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>53111</v>
+        <v>61511</v>
       </c>
       <c r="B16" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C16" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D16" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E16" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F16" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G16" t="s">
         <v>36</v>
       </c>
       <c r="H16" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>61511</v>
+        <v>82411</v>
       </c>
       <c r="B17" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C17" t="s">
         <v>21</v>
       </c>
       <c r="D17" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E17" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F17" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G17" t="s">
         <v>37</v>
       </c>
       <c r="H17" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>82411</v>
-      </c>
-      <c r="B18" t="s">
-        <v>41</v>
-      </c>
-      <c r="C18" t="s">
-        <v>21</v>
-      </c>
-      <c r="D18" t="s">
-        <v>45</v>
-      </c>
-      <c r="E18" t="s">
-        <v>70</v>
-      </c>
-      <c r="F18" t="s">
-        <v>47</v>
-      </c>
-      <c r="G18" t="s">
-        <v>38</v>
-      </c>
-      <c r="H18" t="s">
         <v>17</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H18" xr:uid="{C75852A4-ECA2-454E-AC82-6219A7C78EC0}"/>
+  <autoFilter ref="A1:H17" xr:uid="{C75852A4-ECA2-454E-AC82-6219A7C78EC0}"/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Module/Fragen_Quiz.xlsx
+++ b/Module/Fragen_Quiz.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marku\Documents\R-Projekte\HackathonSN2023\Module\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13129A09-144E-4E09-B8A0-31C3C7EFB5E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD537023-80F9-4F05-B1B9-430A528E348A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{038BF83B-4E0E-466C-A2A8-7B82ACCE286C}"/>
   </bookViews>
@@ -137,9 +137,6 @@
     <t>In welcher Stadt oder welchem Landkreis werden die meisten Kartoffeln pro Hektar geerntet?</t>
   </si>
   <si>
-    <t>In welcher Stadt oder welchem Landkreis gibt es die meisten Beherberungsbetriebe (Hotels, Pesionen etc.)?</t>
-  </si>
-  <si>
     <t>In welcher Stadt oder welchem Landkreis verzeichnete die meisten Gästeübernachtungen aus dem Ausland?</t>
   </si>
   <si>
@@ -249,6 +246,9 @@
   </si>
   <si>
     <t>BEV519__Durchschnittsalter_der_Bevoelkerung__Jahre...</t>
+  </si>
+  <si>
+    <t>In welcher Stadt oder welchem Landkreis gibt es die meisten Beherbergungsbetriebe (Hotels, Pensionen etc.)?</t>
   </si>
 </sst>
 </file>
@@ -603,7 +603,7 @@
   <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -622,19 +622,19 @@
         <v>18</v>
       </c>
       <c r="B1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C1" t="s">
         <v>19</v>
       </c>
       <c r="D1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E1" t="s">
         <v>42</v>
       </c>
-      <c r="E1" t="s">
-        <v>43</v>
-      </c>
       <c r="F1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G1" t="s">
         <v>0</v>
@@ -648,19 +648,19 @@
         <v>11111</v>
       </c>
       <c r="B2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C2" t="s">
         <v>21</v>
       </c>
       <c r="D2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E2" t="s">
         <v>44</v>
       </c>
-      <c r="E2" t="s">
-        <v>45</v>
-      </c>
       <c r="F2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G2" t="s">
         <v>22</v>
@@ -674,19 +674,19 @@
         <v>12411</v>
       </c>
       <c r="B3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C3" t="s">
         <v>20</v>
       </c>
       <c r="D3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F3" t="s">
         <v>47</v>
-      </c>
-      <c r="F3" t="s">
-        <v>48</v>
       </c>
       <c r="G3" t="s">
         <v>23</v>
@@ -700,19 +700,19 @@
         <v>12411</v>
       </c>
       <c r="B4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C4" t="s">
         <v>20</v>
       </c>
       <c r="D4" t="s">
+        <v>67</v>
+      </c>
+      <c r="E4" t="s">
         <v>68</v>
       </c>
-      <c r="E4" t="s">
-        <v>69</v>
-      </c>
       <c r="F4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G4" t="s">
         <v>24</v>
@@ -726,19 +726,19 @@
         <v>13312</v>
       </c>
       <c r="B5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C5" t="s">
         <v>20</v>
       </c>
       <c r="D5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G5" t="s">
         <v>25</v>
@@ -752,19 +752,19 @@
         <v>21111</v>
       </c>
       <c r="B6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C6" t="s">
         <v>20</v>
       </c>
       <c r="D6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G6" t="s">
         <v>26</v>
@@ -778,19 +778,19 @@
         <v>21111</v>
       </c>
       <c r="B7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C7" t="s">
         <v>20</v>
       </c>
       <c r="D7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G7" t="s">
         <v>27</v>
@@ -804,19 +804,19 @@
         <v>21311</v>
       </c>
       <c r="B8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C8" t="s">
         <v>20</v>
       </c>
       <c r="D8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G8" t="s">
         <v>28</v>
@@ -830,19 +830,19 @@
         <v>31111</v>
       </c>
       <c r="B9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C9" t="s">
         <v>21</v>
       </c>
       <c r="D9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G9" t="s">
         <v>29</v>
@@ -856,19 +856,19 @@
         <v>33111</v>
       </c>
       <c r="B10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C10" t="s">
         <v>20</v>
       </c>
       <c r="D10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E10" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G10" t="s">
         <v>30</v>
@@ -882,19 +882,19 @@
         <v>41241</v>
       </c>
       <c r="B11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C11" t="s">
         <v>20</v>
       </c>
       <c r="D11" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F11" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G11" t="s">
         <v>31</v>
@@ -908,22 +908,22 @@
         <v>45412</v>
       </c>
       <c r="B12" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C12" t="s">
         <v>21</v>
       </c>
       <c r="D12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E12" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F12" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G12" t="s">
-        <v>32</v>
+        <v>69</v>
       </c>
       <c r="H12" t="s">
         <v>12</v>
@@ -934,22 +934,22 @@
         <v>45412</v>
       </c>
       <c r="B13" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C13" t="s">
         <v>20</v>
       </c>
       <c r="D13" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E13" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F13" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G13" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H13" t="s">
         <v>13</v>
@@ -960,22 +960,22 @@
         <v>46251</v>
       </c>
       <c r="B14" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C14" t="s">
         <v>20</v>
       </c>
       <c r="D14" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E14" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F14" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G14" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H14" t="s">
         <v>14</v>
@@ -986,22 +986,22 @@
         <v>53111</v>
       </c>
       <c r="B15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C15" t="s">
         <v>20</v>
       </c>
       <c r="D15" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E15" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F15" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G15" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H15" t="s">
         <v>15</v>
@@ -1012,22 +1012,22 @@
         <v>61511</v>
       </c>
       <c r="B16" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C16" t="s">
         <v>21</v>
       </c>
       <c r="D16" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E16" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F16" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G16" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H16" t="s">
         <v>16</v>
@@ -1038,22 +1038,22 @@
         <v>82411</v>
       </c>
       <c r="B17" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C17" t="s">
         <v>21</v>
       </c>
       <c r="D17" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E17" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F17" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G17" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H17" t="s">
         <v>17</v>

--- a/Module/Fragen_Quiz.xlsx
+++ b/Module/Fragen_Quiz.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marku\Documents\R-Projekte\HackathonSN2023\Module\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD537023-80F9-4F05-B1B9-430A528E348A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1139839-51C8-480D-9C82-7B31ADD0CA31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{038BF83B-4E0E-466C-A2A8-7B82ACCE286C}"/>
   </bookViews>
@@ -137,9 +137,6 @@
     <t>In welcher Stadt oder welchem Landkreis werden die meisten Kartoffeln pro Hektar geerntet?</t>
   </si>
   <si>
-    <t>In welcher Stadt oder welchem Landkreis verzeichnete die meisten Gästeübernachtungen aus dem Ausland?</t>
-  </si>
-  <si>
     <t>In welcher Stadt oder welchem Landkreis gibt es die wenigsten PKWs?</t>
   </si>
   <si>
@@ -249,6 +246,9 @@
   </si>
   <si>
     <t>In welcher Stadt oder welchem Landkreis gibt es die meisten Beherbergungsbetriebe (Hotels, Pensionen etc.)?</t>
+  </si>
+  <si>
+    <t>Welche Stadt oder welcher Landkreis verzeichnete die meisten Gästeübernachtungen aus dem Ausland?</t>
   </si>
 </sst>
 </file>
@@ -603,7 +603,7 @@
   <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -622,19 +622,19 @@
         <v>18</v>
       </c>
       <c r="B1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C1" t="s">
         <v>19</v>
       </c>
       <c r="D1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1" t="s">
         <v>41</v>
       </c>
-      <c r="E1" t="s">
-        <v>42</v>
-      </c>
       <c r="F1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G1" t="s">
         <v>0</v>
@@ -648,19 +648,19 @@
         <v>11111</v>
       </c>
       <c r="B2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C2" t="s">
         <v>21</v>
       </c>
       <c r="D2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E2" t="s">
         <v>43</v>
       </c>
-      <c r="E2" t="s">
-        <v>44</v>
-      </c>
       <c r="F2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G2" t="s">
         <v>22</v>
@@ -674,19 +674,19 @@
         <v>12411</v>
       </c>
       <c r="B3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C3" t="s">
         <v>20</v>
       </c>
       <c r="D3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E3" t="s">
+        <v>45</v>
+      </c>
+      <c r="F3" t="s">
         <v>46</v>
-      </c>
-      <c r="F3" t="s">
-        <v>47</v>
       </c>
       <c r="G3" t="s">
         <v>23</v>
@@ -700,19 +700,19 @@
         <v>12411</v>
       </c>
       <c r="B4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C4" t="s">
         <v>20</v>
       </c>
       <c r="D4" t="s">
+        <v>66</v>
+      </c>
+      <c r="E4" t="s">
         <v>67</v>
       </c>
-      <c r="E4" t="s">
-        <v>68</v>
-      </c>
       <c r="F4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G4" t="s">
         <v>24</v>
@@ -726,19 +726,19 @@
         <v>13312</v>
       </c>
       <c r="B5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C5" t="s">
         <v>20</v>
       </c>
       <c r="D5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G5" t="s">
         <v>25</v>
@@ -752,19 +752,19 @@
         <v>21111</v>
       </c>
       <c r="B6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C6" t="s">
         <v>20</v>
       </c>
       <c r="D6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G6" t="s">
         <v>26</v>
@@ -778,19 +778,19 @@
         <v>21111</v>
       </c>
       <c r="B7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C7" t="s">
         <v>20</v>
       </c>
       <c r="D7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G7" t="s">
         <v>27</v>
@@ -804,19 +804,19 @@
         <v>21311</v>
       </c>
       <c r="B8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C8" t="s">
         <v>20</v>
       </c>
       <c r="D8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G8" t="s">
         <v>28</v>
@@ -830,19 +830,19 @@
         <v>31111</v>
       </c>
       <c r="B9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C9" t="s">
         <v>21</v>
       </c>
       <c r="D9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G9" t="s">
         <v>29</v>
@@ -856,19 +856,19 @@
         <v>33111</v>
       </c>
       <c r="B10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C10" t="s">
         <v>20</v>
       </c>
       <c r="D10" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G10" t="s">
         <v>30</v>
@@ -882,19 +882,19 @@
         <v>41241</v>
       </c>
       <c r="B11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C11" t="s">
         <v>20</v>
       </c>
       <c r="D11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E11" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G11" t="s">
         <v>31</v>
@@ -908,22 +908,22 @@
         <v>45412</v>
       </c>
       <c r="B12" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C12" t="s">
         <v>21</v>
       </c>
       <c r="D12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E12" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G12" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H12" t="s">
         <v>12</v>
@@ -934,22 +934,22 @@
         <v>45412</v>
       </c>
       <c r="B13" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C13" t="s">
         <v>20</v>
       </c>
       <c r="D13" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E13" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F13" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G13" t="s">
-        <v>32</v>
+        <v>69</v>
       </c>
       <c r="H13" t="s">
         <v>13</v>
@@ -960,22 +960,22 @@
         <v>46251</v>
       </c>
       <c r="B14" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C14" t="s">
         <v>20</v>
       </c>
       <c r="D14" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E14" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F14" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G14" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H14" t="s">
         <v>14</v>
@@ -986,22 +986,22 @@
         <v>53111</v>
       </c>
       <c r="B15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C15" t="s">
         <v>20</v>
       </c>
       <c r="D15" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E15" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G15" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H15" t="s">
         <v>15</v>
@@ -1012,22 +1012,22 @@
         <v>61511</v>
       </c>
       <c r="B16" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C16" t="s">
         <v>21</v>
       </c>
       <c r="D16" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E16" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F16" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G16" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H16" t="s">
         <v>16</v>
@@ -1038,22 +1038,22 @@
         <v>82411</v>
       </c>
       <c r="B17" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C17" t="s">
         <v>21</v>
       </c>
       <c r="D17" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E17" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F17" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G17" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H17" t="s">
         <v>17</v>

--- a/Module/Fragen_Quiz.xlsx
+++ b/Module/Fragen_Quiz.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marku\Documents\R-Projekte\HackathonSN2023\Module\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1139839-51C8-480D-9C82-7B31ADD0CA31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5DBC932-D461-4163-A0BE-1F68AA4EA338}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{038BF83B-4E0E-466C-A2A8-7B82ACCE286C}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="71">
   <si>
     <t>Frage</t>
   </si>
@@ -50,9 +50,6 @@
     <t>Der Bevölkerungsstand bzw. die Einwohnerzahl einer Stadt oder eines Landkreises wird jedes Jahr fortgeschrieben. Nur aller 10 Jahre - mit einer neuen Zensuserhebung - wird der genaue Bevölkerungsstand erhoben. Es gibt auch eine Berechnung, welche die Bevölkerung bis 2040 "vorhersagt", die Bevölkerungsvorausberechnung.</t>
   </si>
   <si>
-    <t>Das Durchschnittsalter der Bevölkerung ist in ländlichen Gebieten meistens sehr hoch. Das niedrigsten Durchschnittaalter haben hingegen die Bevohner der kreisfreien Stadt Leipzig.</t>
-  </si>
-  <si>
     <t>In der amtlichen Statistik werden die Erwerbstätigen nach Wirtschaftszweigen erhoben. Einer dieser Wirtschaftszweige ist die "Land- und Forstwirtschaft, Fischerei".</t>
   </si>
   <si>
@@ -74,27 +71,15 @@
     <t>Die Bodenfläche einer Stadt oder eines Landkreises kann sehr unterschiedlich genutzt werden. Zum einen wird ein Teil als Siedlungs- und Verkehrsfläche genutzt. Zum anderen besteht die Bodenfläche aus nicht bebauten Gebieten wie Wäldern und Gewässern. In der Landwirtschaft versteht man unter Bodennutzung die Bewirtschaftung des Bodens, die darauf abzielt einen Pflanzenertrag zu erwirtschaften.</t>
   </si>
   <si>
-    <t xml:space="preserve">Der Hektarertrag ist die Menge an Kartoffeln, die auf einem Hektar Fläche geernten werden kann. </t>
-  </si>
-  <si>
-    <t>Die Anzahl der Beherberungsbetriebe ist nicht immer entscheidend für die Anzahl der Übernachtungen. Sie stellt allerdings ein entscheidender Indikator (Anzeichen für einen Zustand).</t>
-  </si>
-  <si>
     <t>Bei der Gästeübernachtung wird jeder Tag mitgezählt. Wenn du fünf Tage im Hotel übernachtest sind das fünf Gästeübernachtungen.</t>
   </si>
   <si>
     <t>Der Kraftfahrzeugbestand ist die Summe aller im Zentralen Fahrzeugregister gespeicherten Kraftfahrzeuge und -anhänger. Darunter fallen auch Personenkraftwagen (PKWs).</t>
   </si>
   <si>
-    <t>Ein Handwerksunternehmen sind Unternehmen, die ein Handwerk wie zum Beispiel Elektrotechnik oder Holzhandwerk ausüben.</t>
-  </si>
-  <si>
     <t>Die Statistik der Kaufwerte für Bauland erfasst den durchschnittlichen Kaufwert je Quadratmeter. Sie ermittelt also, wo das Bauland am teuersten ist.</t>
   </si>
   <si>
-    <t>Die VGR (Volkswirtschaftliche Gesamtrechnung) der Länder berechnet dasverfügbare Einkommen der privaten Haushalte je Einwohner.</t>
-  </si>
-  <si>
     <t>Statistik_Code</t>
   </si>
   <si>
@@ -146,18 +131,9 @@
     <t>In welcher Stadt oder welchem Landkreis ist das Bauland am teuersten?</t>
   </si>
   <si>
-    <t>In welcher Stadt oder welchem Landkreis ist das Einkommen pro Person am höchsten?</t>
-  </si>
-  <si>
     <t>Thema</t>
   </si>
   <si>
-    <t>Bevölkerung, Soziales und Gesundheit</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wirtschaft, Einkommen und Unternehmen </t>
-  </si>
-  <si>
     <t>Antwort_min_max</t>
   </si>
   <si>
@@ -249,6 +225,33 @@
   </si>
   <si>
     <t>Welche Stadt oder welcher Landkreis verzeichnete die meisten Gästeübernachtungen aus dem Ausland?</t>
+  </si>
+  <si>
+    <t>Liniendiagramm</t>
+  </si>
+  <si>
+    <t>Soziales &amp; Gebiet</t>
+  </si>
+  <si>
+    <t>Wirtschaft</t>
+  </si>
+  <si>
+    <t>In welcher Stadt oder welchem Landkreis ist das verfügbare Einkommen pro Person am höchsten?</t>
+  </si>
+  <si>
+    <t>Das Durchschnittsalter der Bevölkerung ist in ländlichen Gebieten meistens sehr hoch.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Der Hektarertrag ist das Gewicht in Tonnen an Kartoffeln, die auf einem Hektar Fläche geernten werden kann. </t>
+  </si>
+  <si>
+    <t>Der Konjunkturindikator Beherbergungsbetriebe gibt Aufschluss über die wirtschaftliche Aktivität im Bereich des Gastgewerbes.</t>
+  </si>
+  <si>
+    <t>Handwerksunternehmen sind Rechtliche Einheiten, die in die Handwerksrolle eingetragen sind oder in das Verzeichnis der Gewerbe, die als zulassungsfreie Handwerke betrieben werden können. Das Handwerk wird über bestimmte berufliche Tätigkeiten abgegrenzt.</t>
+  </si>
+  <si>
+    <t>Die VGR (Volkswirtschaftliche Gesamtrechnung) der Länder berechnet u.a. das verfügbare Einkommen der privaten Haushalte je Einwohner.</t>
   </si>
 </sst>
 </file>
@@ -603,7 +606,7 @@
   <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -614,27 +617,27 @@
     <col min="4" max="4" width="17" customWidth="1"/>
     <col min="5" max="5" width="22" customWidth="1"/>
     <col min="6" max="6" width="17.85546875" customWidth="1"/>
-    <col min="7" max="7" width="86.5703125" customWidth="1"/>
+    <col min="7" max="7" width="116.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="B1" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="C1" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="D1" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="E1" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="F1" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="G1" t="s">
         <v>0</v>
@@ -648,25 +651,25 @@
         <v>11111</v>
       </c>
       <c r="B2" t="s">
-        <v>37</v>
+        <v>63</v>
       </c>
       <c r="C2" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="D2" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="E2" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="F2" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="G2" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="H2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -674,22 +677,22 @@
         <v>12411</v>
       </c>
       <c r="B3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E3" t="s">
         <v>37</v>
       </c>
-      <c r="C3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D3" t="s">
-        <v>42</v>
-      </c>
-      <c r="E3" t="s">
-        <v>45</v>
-      </c>
       <c r="F3" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="G3" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="H3" t="s">
         <v>2</v>
@@ -700,25 +703,25 @@
         <v>12411</v>
       </c>
       <c r="B4" t="s">
-        <v>37</v>
+        <v>63</v>
       </c>
       <c r="C4" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D4" t="s">
+        <v>58</v>
+      </c>
+      <c r="E4" t="s">
+        <v>59</v>
+      </c>
+      <c r="F4" t="s">
+        <v>36</v>
+      </c>
+      <c r="G4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H4" t="s">
         <v>66</v>
-      </c>
-      <c r="E4" t="s">
-        <v>67</v>
-      </c>
-      <c r="F4" t="s">
-        <v>44</v>
-      </c>
-      <c r="G4" t="s">
-        <v>24</v>
-      </c>
-      <c r="H4" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -726,25 +729,25 @@
         <v>13312</v>
       </c>
       <c r="B5" t="s">
-        <v>38</v>
+        <v>64</v>
       </c>
       <c r="C5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" t="s">
+        <v>40</v>
+      </c>
+      <c r="E5" t="s">
+        <v>39</v>
+      </c>
+      <c r="F5" t="s">
+        <v>36</v>
+      </c>
+      <c r="G5" t="s">
         <v>20</v>
       </c>
-      <c r="D5" t="s">
-        <v>48</v>
-      </c>
-      <c r="E5" t="s">
-        <v>47</v>
-      </c>
-      <c r="F5" t="s">
-        <v>44</v>
-      </c>
-      <c r="G5" t="s">
-        <v>25</v>
-      </c>
       <c r="H5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -752,25 +755,25 @@
         <v>21111</v>
       </c>
       <c r="B6" t="s">
-        <v>37</v>
+        <v>63</v>
       </c>
       <c r="C6" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D6" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="E6" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="F6" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="G6" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="H6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -778,25 +781,25 @@
         <v>21111</v>
       </c>
       <c r="B7" t="s">
-        <v>37</v>
+        <v>63</v>
       </c>
       <c r="C7" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D7" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="E7" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="F7" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="G7" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="H7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -804,25 +807,25 @@
         <v>21311</v>
       </c>
       <c r="B8" t="s">
-        <v>37</v>
+        <v>63</v>
       </c>
       <c r="C8" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D8" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="E8" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="F8" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="G8" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="H8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -830,25 +833,25 @@
         <v>31111</v>
       </c>
       <c r="B9" t="s">
-        <v>38</v>
+        <v>64</v>
       </c>
       <c r="C9" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="D9" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="E9" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="F9" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="G9" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="H9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
@@ -856,25 +859,25 @@
         <v>33111</v>
       </c>
       <c r="B10" t="s">
-        <v>38</v>
+        <v>64</v>
       </c>
       <c r="C10" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D10" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="E10" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="F10" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="G10" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="H10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -882,25 +885,25 @@
         <v>41241</v>
       </c>
       <c r="B11" t="s">
-        <v>38</v>
+        <v>64</v>
       </c>
       <c r="C11" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D11" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="E11" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="F11" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="G11" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="H11" t="s">
-        <v>11</v>
+        <v>67</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
@@ -908,25 +911,25 @@
         <v>45412</v>
       </c>
       <c r="B12" t="s">
-        <v>38</v>
+        <v>64</v>
       </c>
       <c r="C12" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="D12" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="E12" t="s">
+        <v>52</v>
+      </c>
+      <c r="F12" t="s">
+        <v>36</v>
+      </c>
+      <c r="G12" t="s">
         <v>60</v>
       </c>
-      <c r="F12" t="s">
-        <v>44</v>
-      </c>
-      <c r="G12" t="s">
+      <c r="H12" t="s">
         <v>68</v>
-      </c>
-      <c r="H12" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
@@ -934,25 +937,25 @@
         <v>45412</v>
       </c>
       <c r="B13" t="s">
-        <v>38</v>
+        <v>64</v>
       </c>
       <c r="C13" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D13" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="E13" t="s">
+        <v>53</v>
+      </c>
+      <c r="F13" t="s">
+        <v>36</v>
+      </c>
+      <c r="G13" t="s">
         <v>61</v>
       </c>
-      <c r="F13" t="s">
-        <v>44</v>
-      </c>
-      <c r="G13" t="s">
-        <v>69</v>
-      </c>
       <c r="H13" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
@@ -960,25 +963,25 @@
         <v>46251</v>
       </c>
       <c r="B14" t="s">
+        <v>64</v>
+      </c>
+      <c r="C14" t="s">
+        <v>15</v>
+      </c>
+      <c r="D14" t="s">
+        <v>58</v>
+      </c>
+      <c r="E14" t="s">
+        <v>54</v>
+      </c>
+      <c r="F14" t="s">
         <v>38</v>
       </c>
-      <c r="C14" t="s">
-        <v>20</v>
-      </c>
-      <c r="D14" t="s">
-        <v>66</v>
-      </c>
-      <c r="E14" t="s">
-        <v>62</v>
-      </c>
-      <c r="F14" t="s">
-        <v>46</v>
-      </c>
       <c r="G14" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="H14" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
@@ -986,25 +989,25 @@
         <v>53111</v>
       </c>
       <c r="B15" t="s">
-        <v>38</v>
+        <v>64</v>
       </c>
       <c r="C15" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D15" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="E15" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="F15" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="G15" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="H15" t="s">
-        <v>15</v>
+        <v>69</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
@@ -1012,25 +1015,25 @@
         <v>61511</v>
       </c>
       <c r="B16" t="s">
-        <v>38</v>
+        <v>64</v>
       </c>
       <c r="C16" t="s">
-        <v>21</v>
+        <v>62</v>
       </c>
       <c r="D16" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="E16" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="F16" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="G16" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="H16" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
@@ -1038,25 +1041,25 @@
         <v>82411</v>
       </c>
       <c r="B17" t="s">
-        <v>38</v>
+        <v>64</v>
       </c>
       <c r="C17" t="s">
-        <v>21</v>
+        <v>62</v>
       </c>
       <c r="D17" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="E17" t="s">
+        <v>57</v>
+      </c>
+      <c r="F17" t="s">
+        <v>36</v>
+      </c>
+      <c r="G17" t="s">
         <v>65</v>
       </c>
-      <c r="F17" t="s">
-        <v>44</v>
-      </c>
-      <c r="G17" t="s">
-        <v>35</v>
-      </c>
       <c r="H17" t="s">
-        <v>17</v>
+        <v>70</v>
       </c>
     </row>
   </sheetData>

--- a/Module/Fragen_Quiz.xlsx
+++ b/Module/Fragen_Quiz.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marku\Documents\R-Projekte\HackathonSN2023\Module\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5DBC932-D461-4163-A0BE-1F68AA4EA338}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CC1C3B3-2CC1-43F9-8977-06890A164B09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{038BF83B-4E0E-466C-A2A8-7B82ACCE286C}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="72">
   <si>
     <t>Frage</t>
   </si>
@@ -116,9 +116,6 @@
     <t>In welcher Stadt oder welchem Landkreis wurden die meisten Baugenehmigungen für Wohngebäude erteilt?</t>
   </si>
   <si>
-    <t>In welcher Stadt oder welchem Landkreis hat die meiste Waldfläche?</t>
-  </si>
-  <si>
     <t>In welcher Stadt oder welchem Landkreis werden die meisten Kartoffeln pro Hektar geerntet?</t>
   </si>
   <si>
@@ -252,6 +249,12 @@
   </si>
   <si>
     <t>Die VGR (Volkswirtschaftliche Gesamtrechnung) der Länder berechnet u.a. das verfügbare Einkommen der privaten Haushalte je Einwohner.</t>
+  </si>
+  <si>
+    <t>Welche Stadt oder welcher Landkreis hat die meiste Waldfläche?</t>
+  </si>
+  <si>
+    <t>Personenkraftwagen</t>
   </si>
 </sst>
 </file>
@@ -606,7 +609,7 @@
   <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -625,19 +628,19 @@
         <v>13</v>
       </c>
       <c r="B1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C1" t="s">
         <v>14</v>
       </c>
       <c r="D1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E1" t="s">
         <v>32</v>
       </c>
-      <c r="E1" t="s">
-        <v>33</v>
-      </c>
       <c r="F1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G1" t="s">
         <v>0</v>
@@ -651,19 +654,19 @@
         <v>11111</v>
       </c>
       <c r="B2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C2" t="s">
         <v>16</v>
       </c>
       <c r="D2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E2" t="s">
         <v>34</v>
       </c>
-      <c r="E2" t="s">
-        <v>35</v>
-      </c>
       <c r="F2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G2" t="s">
         <v>17</v>
@@ -677,19 +680,19 @@
         <v>12411</v>
       </c>
       <c r="B3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C3" t="s">
         <v>15</v>
       </c>
       <c r="D3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F3" t="s">
         <v>37</v>
-      </c>
-      <c r="F3" t="s">
-        <v>38</v>
       </c>
       <c r="G3" t="s">
         <v>18</v>
@@ -703,25 +706,25 @@
         <v>12411</v>
       </c>
       <c r="B4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C4" t="s">
         <v>15</v>
       </c>
       <c r="D4" t="s">
+        <v>57</v>
+      </c>
+      <c r="E4" t="s">
         <v>58</v>
       </c>
-      <c r="E4" t="s">
-        <v>59</v>
-      </c>
       <c r="F4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G4" t="s">
         <v>19</v>
       </c>
       <c r="H4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -729,19 +732,19 @@
         <v>13312</v>
       </c>
       <c r="B5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C5" t="s">
         <v>15</v>
       </c>
       <c r="D5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G5" t="s">
         <v>20</v>
@@ -755,19 +758,19 @@
         <v>21111</v>
       </c>
       <c r="B6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C6" t="s">
         <v>15</v>
       </c>
       <c r="D6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G6" t="s">
         <v>21</v>
@@ -781,19 +784,19 @@
         <v>21111</v>
       </c>
       <c r="B7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C7" t="s">
         <v>15</v>
       </c>
       <c r="D7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G7" t="s">
         <v>22</v>
@@ -807,19 +810,19 @@
         <v>21311</v>
       </c>
       <c r="B8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C8" t="s">
         <v>15</v>
       </c>
       <c r="D8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G8" t="s">
         <v>23</v>
@@ -833,19 +836,19 @@
         <v>31111</v>
       </c>
       <c r="B9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C9" t="s">
         <v>16</v>
       </c>
       <c r="D9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G9" t="s">
         <v>24</v>
@@ -859,22 +862,22 @@
         <v>33111</v>
       </c>
       <c r="B10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C10" t="s">
         <v>15</v>
       </c>
       <c r="D10" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G10" t="s">
-        <v>25</v>
+        <v>70</v>
       </c>
       <c r="H10" t="s">
         <v>9</v>
@@ -885,25 +888,25 @@
         <v>41241</v>
       </c>
       <c r="B11" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C11" t="s">
         <v>15</v>
       </c>
       <c r="D11" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E11" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H11" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
@@ -911,25 +914,25 @@
         <v>45412</v>
       </c>
       <c r="B12" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C12" t="s">
         <v>16</v>
       </c>
       <c r="D12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E12" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G12" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H12" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
@@ -937,22 +940,22 @@
         <v>45412</v>
       </c>
       <c r="B13" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C13" t="s">
         <v>15</v>
       </c>
       <c r="D13" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E13" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F13" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G13" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H13" t="s">
         <v>10</v>
@@ -963,22 +966,22 @@
         <v>46251</v>
       </c>
       <c r="B14" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C14" t="s">
         <v>15</v>
       </c>
       <c r="D14" t="s">
-        <v>58</v>
+        <v>71</v>
       </c>
       <c r="E14" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F14" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G14" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H14" t="s">
         <v>11</v>
@@ -989,25 +992,25 @@
         <v>53111</v>
       </c>
       <c r="B15" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C15" t="s">
         <v>15</v>
       </c>
       <c r="D15" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E15" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F15" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G15" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H15" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
@@ -1015,22 +1018,22 @@
         <v>61511</v>
       </c>
       <c r="B16" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C16" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D16" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E16" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F16" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G16" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H16" t="s">
         <v>12</v>
@@ -1041,25 +1044,25 @@
         <v>82411</v>
       </c>
       <c r="B17" t="s">
+        <v>63</v>
+      </c>
+      <c r="C17" t="s">
+        <v>61</v>
+      </c>
+      <c r="D17" t="s">
+        <v>33</v>
+      </c>
+      <c r="E17" t="s">
+        <v>56</v>
+      </c>
+      <c r="F17" t="s">
+        <v>35</v>
+      </c>
+      <c r="G17" t="s">
         <v>64</v>
       </c>
-      <c r="C17" t="s">
-        <v>62</v>
-      </c>
-      <c r="D17" t="s">
-        <v>34</v>
-      </c>
-      <c r="E17" t="s">
-        <v>57</v>
-      </c>
-      <c r="F17" t="s">
-        <v>36</v>
-      </c>
-      <c r="G17" t="s">
-        <v>65</v>
-      </c>
       <c r="H17" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
   </sheetData>
